--- a/public/template-import/template-product.xlsx
+++ b/public/template-import/template-product.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\usaha-bersama-server-side\public\template-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C902B23-EF9D-44B3-8C29-55B92A94A5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7BE9CC-FB7E-41CB-85BA-4B7FD55CB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6F319ECC-2930-4E77-8080-A9D3696E63A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Satuan</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Gambar</t>
+  </si>
+  <si>
+    <t>Berat</t>
+  </si>
+  <si>
+    <t>Panjang</t>
+  </si>
+  <si>
+    <t>Lebar</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Deskripsi</t>
   </si>
 </sst>
 </file>
@@ -92,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,17 +130,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,24 +470,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1248B10-8B50-4648-BF08-7DDA8B19820D}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="151.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,12 +506,27 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PERINGATAN!" error="Satuan yang kamu pilih tidak sesuai, harap pilih satuan sesuai_x000a_dengan yang tercantum di list" promptTitle="Silahkan Pilih Satuan" prompt="Pilih satuan sesuai dengan yang tercantum di list!" sqref="C2:C1048576" xr:uid="{E438FFA5-1D67-41BF-8703-86954116C4B6}">
-      <formula1>"pcs,pak,dos,1/4"</formula1>
+      <formula1>"pcs,pack,dos,1/4"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PERINGATAN!" error="Kategori yang kamu pilih tidak sesuai, harap_x000a_pilih kategori sesuai dengan yang tercantum dilist" promptTitle="Silahkan Pilih Kategori" prompt="Pilih kategori sesuai dengan yang tercantum di list" sqref="E2:E1048576" xr:uid="{76F7D7A2-92C4-498E-89ED-6AC3A4A60E72}">
       <formula1>"makanan,minuman,pembersih,lainnya"</formula1>
